--- a/consommation.xlsx
+++ b/consommation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thien\Desktop\Eln\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\73JN\OneDrive\Documents\ELN\Wild Penguins\eln1-project-2020-wild-penguins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A49F74-9BC6-49F4-A474-17E3FD7969C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{B0A49F74-9BC6-49F4-A474-17E3FD7969C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{57AE80F8-F1A2-4EEB-8824-78A008985D66}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="3930" windowWidth="16215" windowHeight="8835" xr2:uid="{63AAB08E-E216-4F6B-AED1-552BD7F058EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63AAB08E-E216-4F6B-AED1-552BD7F058EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ADC</t>
   </si>
@@ -41,34 +39,37 @@
     <t>Regulator</t>
   </si>
   <si>
-    <t>Sleep Sys ON</t>
-  </si>
-  <si>
-    <t>Sleep Sys OFF</t>
-  </si>
-  <si>
     <t>2 timers</t>
   </si>
   <si>
-    <t>WDT</t>
-  </si>
-  <si>
-    <t>Consumption [uA]</t>
-  </si>
-  <si>
-    <t>Ampli</t>
-  </si>
-  <si>
     <t>sonde</t>
   </si>
   <si>
-    <t>Temps [s]</t>
-  </si>
-  <si>
     <t>Radio</t>
   </si>
   <si>
     <t>CPU run</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>Ampli off</t>
+  </si>
+  <si>
+    <t>Ampli on</t>
+  </si>
+  <si>
+    <t>Consommation par jour</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Temps / jour [s]</t>
+  </si>
+  <si>
+    <t>Consommation par heure</t>
   </si>
 </sst>
 </file>
@@ -92,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,20 +116,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,119 +466,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0584879-00E3-49EE-A124-EA198EDAAACF}">
-  <dimension ref="B4:D14"/>
+  <dimension ref="B4:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="4">
+        <f>D5/3600*C5</f>
+        <v>1.5277777777777778E-8</v>
+      </c>
+      <c r="F5" s="4">
+        <f>E5/24</f>
+        <v>6.3657407407407404E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.5E-6</v>
+      </c>
+      <c r="D6" s="8">
+        <f>3600*24</f>
+        <v>86400</v>
+      </c>
+      <c r="E6" s="4">
+        <f>D6/3600*C6</f>
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F14" si="0">E6/24</f>
+        <v>1.5E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.3199999999999998E-4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="4">
+        <f>D7/3600*C7</f>
+        <v>6E-9</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000002E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="D8" s="8">
+        <f>3600-D9</f>
+        <v>3599.95</v>
+      </c>
+      <c r="E8" s="4">
+        <f>D8/3600*C8</f>
+        <v>9.9998611111111108E-9</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.166608796296296E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="4">
+        <f>D9/3600*C9</f>
+        <v>1.1111111111111112E-8</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>4.62962962962963E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="4">
+        <f>D10/3600*C10</f>
+        <v>6.9444444444444449E-10</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8935185185185187E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="D11" s="9">
+        <f>3600*24</f>
+        <v>86400</v>
+      </c>
+      <c r="E11" s="4">
+        <f>D11/3600*C11</f>
+        <v>1.4879999999999998E-4</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999991E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1100</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>432</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="C12" s="6">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="D12" s="9">
+        <f>3600*24</f>
+        <v>86400</v>
+      </c>
+      <c r="E12" s="6">
+        <f>D12/3600*C12</f>
+        <v>2.6400000000000001E-5</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2200</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C13" s="6">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E13" s="6">
+        <f>D13/3600*C13</f>
+        <v>6.2333333333333338E-4</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5972222222222223E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4">
+        <f>SUM(E5:E13)</f>
+        <v>8.3457641652777783E-4</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM(F5:F13)</f>
+        <v>3.4774017355324076E-5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
